--- a/sm-gen/src/main/resources/StructureMap XLS-old.xlsx
+++ b/sm-gen/src/main/resources/StructureMap XLS-old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandy\IdeaProjects\fhir-tooling\sm-gen\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2F0E87-0442-42F5-AAA6-524D11644DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBDFA50-3AD7-47A1-9F85-055923607C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>effective</t>
   </si>
   <si>
-    <t>evaluate(Patient, now())</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>Flag</t>
+  </si>
+  <si>
+    <t>evaluate(src, now())</t>
   </si>
 </sst>
 </file>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
@@ -1071,7 +1071,7 @@
         <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25">
@@ -1079,73 +1079,73 @@
         <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25">
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25">
       <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25">
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25">
       <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="14.25">
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>47</v>
@@ -1153,46 +1153,46 @@
     </row>
     <row r="34" spans="2:8" ht="14.25">
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="14.25">
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" t="s">
         <v>64</v>
-      </c>
-      <c r="H35" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="14.25">
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="14.25">
       <c r="C37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="14.25">
@@ -1200,18 +1200,18 @@
         <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="14.25">
       <c r="C39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>47</v>
@@ -1219,46 +1219,46 @@
     </row>
     <row r="40" spans="2:8" ht="14.25">
       <c r="B40" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="14.25">
       <c r="C41" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="14.25">
       <c r="B42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="14.25">
       <c r="C43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="14.25">
@@ -1292,14 +1292,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1326,13 +1326,13 @@
     </row>
     <row r="2" spans="1:26" ht="14.25">
       <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
